--- a/target/classes/ExcelSheets/EmployeeDetails_Hash.xlsx
+++ b/target/classes/ExcelSheets/EmployeeDetails_Hash.xlsx
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+  <si>
+    <t xml:space="preserve">fieldName</t>
+  </si>
   <si>
     <t xml:space="preserve">fieldValue</t>
   </si>
@@ -270,92 +273,94 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1"/>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
